--- a/doc/Shedule_Plan_Group-1.xlsx
+++ b/doc/Shedule_Plan_Group-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dugun\Desktop\DUGUNEPALLI SUNIL KUMAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dugun\Desktop\Final Documents Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65BF899-C5AD-45E9-B0F8-09FDB9501F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E87BE7-1F9D-490D-BDB3-DE77981E5FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{817BBE80-01B0-490C-AFD2-4E2A628619E7}"/>
   </bookViews>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +531,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +642,12 @@
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="15">
+        <v>44890</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44890</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
